--- a/7/1/1/3/2/Series originales 1996 a 2021 - Anual.xlsx
+++ b/7/1/1/3/2/Series originales 1996 a 2021 - Anual.xlsx
@@ -725,6 +725,12 @@
       <c r="Z2">
         <v>5241</v>
       </c>
+      <c r="AA2">
+        <v>2939</v>
+      </c>
+      <c r="AB2">
+        <v>2326</v>
+      </c>
       <c r="AC2">
         <v>5693</v>
       </c>
@@ -733,6 +739,9 @@
       </c>
       <c r="AE2">
         <v>3988</v>
+      </c>
+      <c r="AF2">
+        <v>62523</v>
       </c>
       <c r="AG2">
         <v>4338</v>
@@ -805,6 +814,12 @@
       <c r="Z3">
         <v>5681</v>
       </c>
+      <c r="AA3">
+        <v>2855</v>
+      </c>
+      <c r="AB3">
+        <v>2775</v>
+      </c>
       <c r="AC3">
         <v>6013</v>
       </c>
@@ -813,6 +828,9 @@
       </c>
       <c r="AE3">
         <v>4044</v>
+      </c>
+      <c r="AF3">
+        <v>67021</v>
       </c>
       <c r="AG3">
         <v>4720</v>
@@ -885,6 +903,12 @@
       <c r="Z4">
         <v>6318</v>
       </c>
+      <c r="AA4">
+        <v>2862</v>
+      </c>
+      <c r="AB4">
+        <v>3377</v>
+      </c>
       <c r="AC4">
         <v>6206</v>
       </c>
@@ -893,6 +917,9 @@
       </c>
       <c r="AE4">
         <v>4108</v>
+      </c>
+      <c r="AF4">
+        <v>69836</v>
       </c>
       <c r="AG4">
         <v>4972</v>
@@ -965,6 +992,12 @@
       <c r="Z5">
         <v>6583</v>
       </c>
+      <c r="AA5">
+        <v>2725</v>
+      </c>
+      <c r="AB5">
+        <v>3744</v>
+      </c>
       <c r="AC5">
         <v>6351</v>
       </c>
@@ -973,6 +1006,9 @@
       </c>
       <c r="AE5">
         <v>4169</v>
+      </c>
+      <c r="AF5">
+        <v>69901</v>
       </c>
       <c r="AG5">
         <v>4854</v>
@@ -1045,6 +1081,12 @@
       <c r="Z6">
         <v>7335</v>
       </c>
+      <c r="AA6">
+        <v>2807</v>
+      </c>
+      <c r="AB6">
+        <v>4387</v>
+      </c>
       <c r="AC6">
         <v>6430</v>
       </c>
@@ -1053,6 +1095,9 @@
       </c>
       <c r="AE6">
         <v>4230</v>
+      </c>
+      <c r="AF6">
+        <v>73500</v>
       </c>
       <c r="AG6">
         <v>5129</v>
@@ -1125,6 +1170,12 @@
       <c r="Z7">
         <v>7992</v>
       </c>
+      <c r="AA7">
+        <v>2913</v>
+      </c>
+      <c r="AB7">
+        <v>4944</v>
+      </c>
       <c r="AC7">
         <v>6749</v>
       </c>
@@ -1133,6 +1184,9 @@
       </c>
       <c r="AE7">
         <v>4301</v>
+      </c>
+      <c r="AF7">
+        <v>75962</v>
       </c>
       <c r="AG7">
         <v>5265</v>
@@ -1205,6 +1259,12 @@
       <c r="Z8">
         <v>8523</v>
       </c>
+      <c r="AA8">
+        <v>2891</v>
+      </c>
+      <c r="AB8">
+        <v>5542</v>
+      </c>
       <c r="AC8">
         <v>6899</v>
       </c>
@@ -1213,6 +1273,9 @@
       </c>
       <c r="AE8">
         <v>4386</v>
+      </c>
+      <c r="AF8">
+        <v>78362</v>
       </c>
       <c r="AG8">
         <v>5406</v>
@@ -1285,6 +1348,12 @@
       <c r="Z9">
         <v>9087</v>
       </c>
+      <c r="AA9">
+        <v>2831</v>
+      </c>
+      <c r="AB9">
+        <v>6245</v>
+      </c>
       <c r="AC9">
         <v>7311</v>
       </c>
@@ -1293,6 +1362,9 @@
       </c>
       <c r="AE9">
         <v>4474</v>
+      </c>
+      <c r="AF9">
+        <v>81446</v>
       </c>
       <c r="AG9">
         <v>5658</v>
@@ -1365,6 +1437,12 @@
       <c r="Z10">
         <v>10461</v>
       </c>
+      <c r="AA10">
+        <v>3201</v>
+      </c>
+      <c r="AB10">
+        <v>7267</v>
+      </c>
       <c r="AC10">
         <v>7544</v>
       </c>
@@ -1373,6 +1451,9 @@
       </c>
       <c r="AE10">
         <v>4574</v>
+      </c>
+      <c r="AF10">
+        <v>87021</v>
       </c>
       <c r="AG10">
         <v>6205</v>
@@ -1445,6 +1526,12 @@
       <c r="Z11">
         <v>11805</v>
       </c>
+      <c r="AA11">
+        <v>3561</v>
+      </c>
+      <c r="AB11">
+        <v>8266</v>
+      </c>
       <c r="AC11">
         <v>7869</v>
       </c>
@@ -1453,6 +1540,9 @@
       </c>
       <c r="AE11">
         <v>4744</v>
+      </c>
+      <c r="AF11">
+        <v>91643</v>
       </c>
       <c r="AG11">
         <v>6780</v>
@@ -1525,6 +1615,12 @@
       <c r="Z12">
         <v>13454</v>
       </c>
+      <c r="AA12">
+        <v>3815</v>
+      </c>
+      <c r="AB12">
+        <v>9706</v>
+      </c>
       <c r="AC12">
         <v>8056</v>
       </c>
@@ -1533,6 +1629,9 @@
       </c>
       <c r="AE12">
         <v>4900</v>
+      </c>
+      <c r="AF12">
+        <v>97269</v>
       </c>
       <c r="AG12">
         <v>7293</v>
@@ -1605,6 +1704,12 @@
       <c r="Z13">
         <v>15221</v>
       </c>
+      <c r="AA13">
+        <v>4475</v>
+      </c>
+      <c r="AB13">
+        <v>10793</v>
+      </c>
       <c r="AC13">
         <v>8635</v>
       </c>
@@ -1613,6 +1718,9 @@
       </c>
       <c r="AE13">
         <v>5071</v>
+      </c>
+      <c r="AF13">
+        <v>101673</v>
       </c>
       <c r="AG13">
         <v>7890</v>
@@ -1685,6 +1793,12 @@
       <c r="Z14">
         <v>16395</v>
       </c>
+      <c r="AA14">
+        <v>4999</v>
+      </c>
+      <c r="AB14">
+        <v>11398</v>
+      </c>
       <c r="AC14">
         <v>8787</v>
       </c>
@@ -1693,6 +1807,9 @@
       </c>
       <c r="AE14">
         <v>5202</v>
+      </c>
+      <c r="AF14">
+        <v>105043</v>
       </c>
       <c r="AG14">
         <v>8287</v>
@@ -1765,6 +1882,12 @@
       <c r="Z15">
         <v>17054</v>
       </c>
+      <c r="AA15">
+        <v>5041</v>
+      </c>
+      <c r="AB15">
+        <v>12055</v>
+      </c>
       <c r="AC15">
         <v>8540</v>
       </c>
@@ -1773,6 +1896,9 @@
       </c>
       <c r="AE15">
         <v>5490</v>
+      </c>
+      <c r="AF15">
+        <v>103618</v>
       </c>
       <c r="AG15">
         <v>8055</v>
@@ -1845,6 +1971,12 @@
       <c r="Z16">
         <v>17888</v>
       </c>
+      <c r="AA16">
+        <v>5376</v>
+      </c>
+      <c r="AB16">
+        <v>12534</v>
+      </c>
       <c r="AC16">
         <v>8760</v>
       </c>
@@ -1853,6 +1985,9 @@
       </c>
       <c r="AE16">
         <v>5655</v>
+      </c>
+      <c r="AF16">
+        <v>109015</v>
       </c>
       <c r="AG16">
         <v>9027</v>
@@ -1925,6 +2060,12 @@
       <c r="Z17">
         <v>19528</v>
       </c>
+      <c r="AA17">
+        <v>5917</v>
+      </c>
+      <c r="AB17">
+        <v>13627</v>
+      </c>
       <c r="AC17">
         <v>9165</v>
       </c>
@@ -1933,6 +2074,9 @@
       </c>
       <c r="AE17">
         <v>5727</v>
+      </c>
+      <c r="AF17">
+        <v>115388</v>
       </c>
       <c r="AG17">
         <v>9829</v>
@@ -2005,6 +2149,12 @@
       <c r="Z18">
         <v>20879</v>
       </c>
+      <c r="AA18">
+        <v>6456</v>
+      </c>
+      <c r="AB18">
+        <v>14423</v>
+      </c>
       <c r="AC18">
         <v>9451</v>
       </c>
@@ -2013,6 +2163,9 @@
       </c>
       <c r="AE18">
         <v>5945</v>
+      </c>
+      <c r="AF18">
+        <v>121319</v>
       </c>
       <c r="AG18">
         <v>10552</v>
